--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7958,4 +7958,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCCBDFAE-5352-4E3C-A6EC-953D99E6058C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288E45D7-2ACE-4466-B979-2597CD6FD15A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D71A7CB-980A-473E-BDBC-D8552B7C1E6C}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7657,4 +7657,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C3FE3FD-2C8B-4683-A25D-CD6EE01E6132}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4552F7-C80E-4B81-95B6-173338991C50}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D385B424-B954-48D1-A162-04CAA2F9C03B}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7624,4 +7624,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B7279F-713C-4992-A5E1-E5ADF3BD8099}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93042B5-D3E0-435B-B629-FAB0EE6FA947}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7023EFC-203D-48F1-BF24-F1339CFD8BB5}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7624,237 +7624,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B7279F-713C-4992-A5E1-E5ADF3BD8099}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93042B5-D3E0-435B-B629-FAB0EE6FA947}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7023EFC-203D-48F1-BF24-F1339CFD8BB5}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7624,4 +7624,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27720176-1F0F-4D11-A161-C5974AF43AD7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98638307-FFFE-4A9F-A097-AEAA9DCBDF2B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F8D4FF-FB66-4807-B7CC-AD0AF3F3B299}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7624,4 +7624,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB6FFC78-7BBF-43F0-B73F-CD592FFE9076}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010C1362-8F05-47EB-BF96-017E88BC60A1}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236F02FA-6A4F-40BC-8040-78176E5DEE05}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7624,4 +7624,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B28EEE1-09F5-4733-926E-0F8621342005}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B0BB1F2-96E1-46E0-AF4B-0909569AAD74}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC10095D-D378-439A-B8BE-C7B8159D3637}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Preparat" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Preparat" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,19 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,27 +37,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -75,23 +55,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -170,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -211,71 +182,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -299,53 +268,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -355,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -364,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -373,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -381,10 +351,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -413,7 +383,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -426,12 +396,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -454,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +434,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Product Name</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Active Substances</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Approval Date</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Marketing Holder</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Distributor</t>
         </is>
@@ -3811,7 +3782,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>750 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3839,27 +3810,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Metronidazol EQL Pharma</t>
+          <t>Levetiracetam 1A Farma</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>200 mg</t>
+          <t>750 mg</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>metronidazol</t>
+          <t>levetiracetam</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2019-05-28</t>
+          <t>2019-06-19</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3877,7 +3848,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>400 mg</t>
+          <t>200 mg</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3905,22 +3876,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Methenamine hippurate EQL Pharma</t>
+          <t>Metronidazol EQL Pharma</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>400 mg</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>metenaminhippurat</t>
+          <t>metronidazol</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2019-05-06</t>
+          <t>2019-05-28</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3933,12 +3904,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Methenamine hippurate "EQL Pharma"</t>
+          <t>Methenamine hippurate EQL Pharma</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3948,12 +3919,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>METHENAMINHIPPURAT</t>
+          <t>metenaminhippurat</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2019-04-29</t>
+          <t>2019-05-06</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3966,27 +3937,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pregabalin EQL Pharma</t>
+          <t>Methenamine hippurate "EQL Pharma"</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>pregabalin</t>
+          <t>METHENAMINHIPPURAT</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2018-12-19</t>
+          <t>2019-04-29</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4009,7 +3980,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>150 mg</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4042,7 +4013,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>200 mg</t>
+          <t>150 mg</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4075,7 +4046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>225 mg</t>
+          <t>200 mg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4108,7 +4079,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>225 mg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4141,7 +4112,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>300 mg</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4174,7 +4145,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>300 mg</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4207,7 +4178,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>75 mg</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4235,22 +4206,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Clindamycin EQL Pharma</t>
+          <t>Pregabalin EQL Pharma</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>150 mg</t>
+          <t>75 mg</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>klindamycinhydroklorid</t>
+          <t>pregabalin</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2018-12-19</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4273,7 +4244,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>300 mg</t>
+          <t>150 mg</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4301,17 +4272,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Metformin EQL</t>
+          <t>Clindamycin EQL Pharma</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>300 mg</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>metforminhydroklorid</t>
+          <t>klindamycinhydroklorid</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4339,7 +4310,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>850 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4367,22 +4338,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Magnesium EQL Pharma</t>
+          <t>Metformin EQL</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>850 mg</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>magnesiumhydroxid</t>
+          <t>metforminhydroklorid</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2018-08-24</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4400,7 +4371,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Acetazolamid EQL Pharma</t>
+          <t>Magnesium EQL Pharma</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4410,12 +4381,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>acetazolamid</t>
+          <t>magnesiumhydroxid</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2018-06-25</t>
+          <t>2018-08-24</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4433,27 +4404,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pregabalin Teva</t>
+          <t>Acetazolamid EQL Pharma</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>225 mg</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>pregabalin</t>
+          <t>acetazolamid</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2018-06-25</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>EQL Pharma Int AB</t>
+          <t>EQL Pharma AB</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4471,7 +4442,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>75 mg</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4494,32 +4465,32 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Marlodon</t>
+          <t>Pregabalin Teva</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>10 mg</t>
+          <t>150 mg</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Methadonhydrochlorid</t>
+          <t>pregabalin</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2018-05-02</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -4527,32 +4498,32 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Marlodon</t>
+          <t>Pregabalin Teva</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>20 mg</t>
+          <t>225 mg</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Methadonhydrochlorid</t>
+          <t>pregabalin</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2018-05-02</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -4560,32 +4531,32 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Marlodon</t>
+          <t>Pregabalin Teva</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>40 mg</t>
+          <t>300 mg</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Methadonhydrochlorid</t>
+          <t>pregabalin</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2018-05-02</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4593,32 +4564,32 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Marlodon</t>
+          <t>Pregabalin Teva</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>5 mg</t>
+          <t>75 mg</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Methadonhydrochlorid</t>
+          <t>pregabalin</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2018-05-02</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -4626,27 +4597,27 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Prednisolon EQL Pharma</t>
+          <t>Marlodon</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>5 mg</t>
+          <t>10 mg</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>prednisolon</t>
+          <t>Methadonhydrochlorid</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2018-04-06</t>
+          <t>2018-05-02</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4659,27 +4630,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Paracetamol EQL Pharma</t>
+          <t>Marlodon</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>20 mg</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>paracetamol</t>
+          <t>Methadonhydrochlorid</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2018-02-26</t>
+          <t>2018-05-02</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4692,27 +4663,27 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Paracetamol EQL Pharma</t>
+          <t>Marlodon</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>40 mg</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>paracetamol</t>
+          <t>Methadonhydrochlorid</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2018-02-26</t>
+          <t>2018-05-02</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4725,27 +4696,27 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Eletriptan EQL Pharma</t>
+          <t>Marlodon</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>20 mg</t>
+          <t>5 mg</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>eletriptanhydrobromid</t>
+          <t>Methadonhydrochlorid</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2017-10-03</t>
+          <t>2018-05-02</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4763,22 +4734,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Eletriptan EQL Pharma</t>
+          <t>Prednisolon EQL Pharma</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>40 mg</t>
+          <t>5 mg</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>eletriptanhydrobromid</t>
+          <t>prednisolon</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2017-10-03</t>
+          <t>2018-04-06</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4796,22 +4767,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Kaliumklorid EQL Pharma</t>
+          <t>Paracetamol EQL Pharma</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>750 mg</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>kaliumklorid</t>
+          <t>paracetamol</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2017-06-26</t>
+          <t>2018-02-26</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4824,27 +4795,27 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Kaliumklorid "EQL Pharma"</t>
+          <t>Paracetamol EQL Pharma</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>750 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>KALIUMCHLORID</t>
+          <t>paracetamol</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2017-06-16</t>
+          <t>2018-02-26</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4862,34 +4833,30 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Clarithromycin HEC Pharm</t>
+          <t>Eletriptan EQL Pharma</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>20 mg</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>klaritromycin</t>
+          <t>eletriptanhydrobromid</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2016-11-11</t>
+          <t>2017-10-03</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>HEC Pharm GmbH</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4899,34 +4866,30 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Clarithromycin HEC Pharm</t>
+          <t>Eletriptan EQL Pharma</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>40 mg</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>klaritromycin</t>
+          <t>eletriptanhydrobromid</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2016-11-11</t>
+          <t>2017-10-03</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>HEC Pharm GmbH</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4936,27 +4899,27 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lamotrigin EQL</t>
+          <t>Kaliumklorid EQL Pharma</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>750 mg</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>lamotrigin</t>
+          <t>kaliumklorid</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2016-09-07</t>
+          <t>2017-06-26</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>EQL Pharma Int AB</t>
+          <t>EQL Pharma AB</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4964,32 +4927,32 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tacrolimus EQL</t>
+          <t>Kaliumklorid "EQL Pharma"</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0,5 mg</t>
+          <t>750 mg</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>takrolimusmonohydrat</t>
+          <t>KALIUMCHLORID</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2016-08-31</t>
+          <t>2017-06-16</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>EQL Pharma Int AB</t>
+          <t>EQL Pharma AB</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -5002,63 +4965,71 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tacrolimus EQL</t>
+          <t>Clarithromycin HEC Pharm</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>takrolimusmonohydrat</t>
+          <t>klaritromycin</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2016-08-31</t>
+          <t>2016-11-11</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>EQL Pharma Int AB</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr"/>
+          <t>HEC Pharm GmbH</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Furosemid "EQL Pharma"</t>
+          <t>Clarithromycin HEC Pharm</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>40 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>FUROSEMID</t>
+          <t>klaritromycin</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2015-06-11</t>
+          <t>2016-11-11</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr"/>
+          <t>HEC Pharm GmbH</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5068,22 +5039,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Spiriva</t>
+          <t>Lamotrigin EQL</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>18 mikrogram</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>tiotropiumbromidmonohydrat</t>
+          <t>lamotrigin</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2016-09-07</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5101,22 +5072,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Entocort</t>
+          <t>Lamotrigin EQL</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3 mg</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>budesonid</t>
+          <t>lamotrigin</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2015-03-04</t>
+          <t>2016-09-07</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5129,32 +5100,32 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Phenoxymethylpenicillinkalium "EQL Pharma"</t>
+          <t>Lamotrigin EQL</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>800 mg</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Phenoxymethylpenicillinkalium</t>
+          <t>lamotrigin</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2015-02-12</t>
+          <t>2016-09-07</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -5167,22 +5138,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Rispolept Consta</t>
+          <t>Lamotrigin EQL</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>37,5 mg</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>risperidon</t>
+          <t>lamotrigin</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2015-01-21</t>
+          <t>2016-09-07</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5200,22 +5171,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Rispolept Consta</t>
+          <t>Tacrolimus EQL</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>0,5 mg</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>risperidon</t>
+          <t>takrolimusmonohydrat</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2015-01-21</t>
+          <t>2016-08-31</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5233,22 +5204,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sandimmun Neoral</t>
+          <t>Tacrolimus EQL</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ciklosporin</t>
+          <t>takrolimusmonohydrat</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2015-01-14</t>
+          <t>2016-08-31</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5261,32 +5232,32 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sandimmun Neoral</t>
+          <t>Furosemid "EQL Pharma"</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>40 mg</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ciklosporin</t>
+          <t>FUROSEMID</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2015-01-14</t>
+          <t>2015-06-11</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>EQL Pharma Int AB</t>
+          <t>EQL Pharma AB</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -5299,22 +5270,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sandimmun Neoral</t>
+          <t>Spiriva</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>18 mikrogram</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ciklosporin</t>
+          <t>tiotropiumbromidmonohydrat</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2015-01-14</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5332,22 +5303,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cardura</t>
+          <t>Spiriva</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>8 mg</t>
+          <t>18 mikrogram</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>doxazosinmesilat</t>
+          <t>tiotropiumbromidmonohydrat</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2014-12-17</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5365,22 +5336,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Crestor</t>
+          <t>Entocort</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>10 mg</t>
+          <t>3 mg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>rosuvastatinkalcium</t>
+          <t>budesonid</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2014-11-05</t>
+          <t>2015-03-04</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5393,32 +5364,32 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Crestor</t>
+          <t>Phenoxymethylpenicillinkalium "EQL Pharma"</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>20 mg</t>
+          <t>800 mg</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>rosuvastatinkalcium</t>
+          <t>Phenoxymethylpenicillinkalium</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2014-11-05</t>
+          <t>2015-02-12</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>EQL Pharma Int AB</t>
+          <t>EQL Pharma AB</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -5431,27 +5402,27 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Atyxine</t>
+          <t>Rispolept Consta</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>37,5 mg</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>hydroxizinhydroklorid</t>
+          <t>risperidon</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2014-09-18</t>
+          <t>2015-01-21</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -5459,32 +5430,32 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Hydroxyzinhydrochlorid "EQL Pharma"</t>
+          <t>Rispolept Consta</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>37,5 mg</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HYDROXYZINHYDROCHLORID</t>
+          <t>risperidon</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2014-08-14</t>
+          <t>2015-01-21</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -5497,27 +5468,27 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Hydroxyzine EQL Pharma</t>
+          <t>Rispolept Consta</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>hydroxizinhydroklorid</t>
+          <t>risperidon</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2014-08-14</t>
+          <t>2015-01-21</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -5530,34 +5501,30 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Clarithromycin HEC</t>
+          <t>Rispolept Consta</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>klaritromycin</t>
+          <t>risperidon</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2014-06-12</t>
+          <t>2015-01-21</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>HEC Pharm GmbH</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
+          <t>EQL Pharma Int AB</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5567,34 +5534,30 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Clarithromycin HEC</t>
+          <t>Sandimmun Neoral</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>klaritromycin</t>
+          <t>ciklosporin</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2014-06-12</t>
+          <t>2015-01-14</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>HEC Pharm GmbH</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
+          <t>EQL Pharma Int AB</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5604,27 +5567,27 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cilostazol EQL Pharma</t>
+          <t>Sandimmun Neoral</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>cilostazol</t>
+          <t>ciklosporin</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2013-09-19</t>
+          <t>2015-01-14</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5637,27 +5600,27 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Fenoximetylpenicillin EQL Pharma</t>
+          <t>Sandimmun Neoral</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1 g</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>fenoximetylpenicillinkalium</t>
+          <t>ciklosporin</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2013-02-07</t>
+          <t>2015-01-14</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -5670,27 +5633,27 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fenoximetylpenicillin EQL Pharma</t>
+          <t>Cardura</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>800 mg</t>
+          <t>8 mg</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>fenoximetylpenicillinkalium</t>
+          <t>doxazosinmesilat</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2013-02-07</t>
+          <t>2014-12-17</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -5703,27 +5666,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Doxycyklin EQL Pharma</t>
+          <t>Crestor</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>10 mg</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>doxycyklinmonohydrat</t>
+          <t>rosuvastatinkalcium</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2013-01-24</t>
+          <t>2014-11-05</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -5731,32 +5694,32 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cefalexine Eql Pharma</t>
+          <t>Crestor</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>250 mg</t>
+          <t>20 mg</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Cefalexin monohydrate</t>
+          <t>rosuvastatinkalcium</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2012-09-07</t>
+          <t>2014-11-05</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -5764,32 +5727,32 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cefalexine Eql Pharma</t>
+          <t>Entocort</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>3 mg</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cefalexin monohydrate</t>
+          <t>budesonid</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2012-09-07</t>
+          <t>2014-09-24</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
+          <t>EQL Pharma Int AB</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5797,27 +5760,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Cefalexine Eql Pharma</t>
+          <t>Atyxine</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>750 mg</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Cefalexin monohydrate</t>
+          <t>hydroxizinhydroklorid</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2012-09-07</t>
+          <t>2014-09-18</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5830,27 +5793,27 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cefalexine Eql Pharma</t>
+          <t>Hydroxyzinhydrochlorid "EQL Pharma"</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1000 mg</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Cefalexin monohydrate</t>
+          <t>HYDROXYZINHYDROCHLORID</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2012-09-07</t>
+          <t>2014-08-14</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5863,27 +5826,27 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ropinirol Eql Pharma</t>
+          <t>Hydroxyzine EQL Pharma</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.25 mg</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Ropinirole hydrochloride</t>
+          <t>hydroxizinhydroklorid</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2011-05-02</t>
+          <t>2014-08-14</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5896,93 +5859,101 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ropinirol Eql Pharma</t>
+          <t>Clarithromycin HEC</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.5 mg</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ropinirole hydrochloride</t>
+          <t>klaritromycin</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2011-05-02</t>
+          <t>2014-06-12</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
+          <t>HEC Pharm GmbH</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ropinirol Eql Pharma</t>
+          <t>Clarithromycin HEC</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Ropinirole hydrochloride</t>
+          <t>klaritromycin</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2011-05-02</t>
+          <t>2014-06-12</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
+          <t>HEC Pharm GmbH</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ropinirol Eql Pharma</t>
+          <t>Cilostazol EQL Pharma</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2 mg</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ropinirole hydrochloride</t>
+          <t>cilostazol</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2011-05-02</t>
+          <t>2013-09-19</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5995,27 +5966,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ropinirol Eql Pharma</t>
+          <t>Fenoximetylpenicillin EQL Pharma</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>5 mg</t>
+          <t>1 g</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ropinirole hydrochloride</t>
+          <t>fenoximetylpenicillinkalium</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2011-05-02</t>
+          <t>2013-02-07</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6028,27 +5999,27 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Kodein "EQL Pharma"</t>
+          <t>Fenoximetylpenicillin EQL Pharma</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>800 mg</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>CODEINPHOSPHATHEMIHYDRAT</t>
+          <t>fenoximetylpenicillinkalium</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2011-03-16</t>
+          <t>2013-02-07</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6066,7 +6037,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sumatriptan EQL Pharma</t>
+          <t>Doxycyklin EQL Pharma</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6076,12 +6047,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>sumatriptansuccinat</t>
+          <t>doxycyklinmonohydrat</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2010-05-21</t>
+          <t>2013-01-24</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6094,27 +6065,27 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sumatriptan EQL Pharma</t>
+          <t>Cefalexine Eql Pharma</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>250 mg</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>sumatriptansuccinat</t>
+          <t>Cefalexin monohydrate</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2010-05-21</t>
+          <t>2012-09-07</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6132,22 +6103,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sumatriptan Eql Pharma</t>
+          <t>Cefalexine Eql Pharma</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Sumatriptan succinate</t>
+          <t>Cefalexin monohydrate</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2010-05-19</t>
+          <t>2012-09-07</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6165,22 +6136,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sumatriptan Eql Pharma</t>
+          <t>Cefalexine Eql Pharma</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>750 mg</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sumatriptan succinate</t>
+          <t>Cefalexin monohydrate</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2010-05-19</t>
+          <t>2012-09-07</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6193,27 +6164,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ropinirol EQL Pharma</t>
+          <t>Cefalexine Eql Pharma</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0,25 mg</t>
+          <t>1000 mg</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ropinirolhydroklorid</t>
+          <t>Cefalexin monohydrate</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2010-02-26</t>
+          <t>2012-09-07</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6226,27 +6197,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ropinirol EQL Pharma</t>
+          <t>Ropinirol Eql Pharma</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0,5 mg</t>
+          <t>0.25 mg</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ropinirolhydroklorid</t>
+          <t>Ropinirole hydrochloride</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2010-02-26</t>
+          <t>2011-05-02</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6259,27 +6230,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ropinirol EQL Pharma</t>
+          <t>Ropinirol Eql Pharma</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>0.5 mg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ropinirolhydroklorid</t>
+          <t>Ropinirole hydrochloride</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2010-02-26</t>
+          <t>2011-05-02</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6292,27 +6263,27 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ropinirol EQL Pharma</t>
+          <t>Ropinirol Eql Pharma</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2 mg</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ropinirolhydroklorid</t>
+          <t>Ropinirole hydrochloride</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2010-02-26</t>
+          <t>2011-05-02</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6325,27 +6296,27 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ropinirol EQL Pharma</t>
+          <t>Ropinirol Eql Pharma</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>5 mg</t>
+          <t>2 mg</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ropinirolhydroklorid</t>
+          <t>Ropinirole hydrochloride</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2010-02-26</t>
+          <t>2011-05-02</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6358,27 +6329,27 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Paroxetin EQL Pharma</t>
+          <t>Ropinirol Eql Pharma</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>20 mg</t>
+          <t>5 mg</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>paroxetinhydrokloridhemihydrat</t>
+          <t>Ropinirole hydrochloride</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2010-01-22</t>
+          <t>2011-05-02</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6391,27 +6362,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Paroxetin EQL Pharma</t>
+          <t>Kodein "EQL Pharma"</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>30 mg</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>paroxetinhydrokloridhemihydrat</t>
+          <t>CODEINPHOSPHATHEMIHYDRAT</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2010-01-22</t>
+          <t>2011-03-16</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6429,22 +6400,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Carvedilol EQL Pharma</t>
+          <t>Sumatriptan EQL Pharma</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12,5 mg</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>karvedilol</t>
+          <t>sumatriptansuccinat</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2009-12-04</t>
+          <t>2010-05-21</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6462,22 +6433,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Carvedilol EQL Pharma</t>
+          <t>Sumatriptan EQL Pharma</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>karvedilol</t>
+          <t>sumatriptansuccinat</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2009-12-04</t>
+          <t>2010-05-21</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6490,27 +6461,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Carvedilol EQL Pharma</t>
+          <t>Sumatriptan Eql Pharma</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>3,125 mg</t>
+          <t>50 mg</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>karvedilol</t>
+          <t>Sumatriptan succinate</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2009-12-04</t>
+          <t>2010-05-19</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6523,27 +6494,27 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Carvedilol EQL Pharma</t>
+          <t>Sumatriptan Eql Pharma</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6,25 mg</t>
+          <t>100 mg</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>karvedilol</t>
+          <t>Sumatriptan succinate</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2009-12-04</t>
+          <t>2010-05-19</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6556,27 +6527,27 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Glepark</t>
+          <t>Ropinirol EQL Pharma</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.088 mg</t>
+          <t>0,25 mg</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Pramipexole dihydrochloride monohydrate</t>
+          <t>ropinirolhydroklorid</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2009-11-10</t>
+          <t>2010-02-26</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6589,27 +6560,27 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Glepark</t>
+          <t>Ropinirol EQL Pharma</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.18 mg</t>
+          <t>0,5 mg</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Pramipexole dihydrochloride monohydrate</t>
+          <t>ropinirolhydroklorid</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2009-11-10</t>
+          <t>2010-02-26</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6622,27 +6593,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Glepark</t>
+          <t>Ropinirol EQL Pharma</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.35 mg</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Pramipexole dihydrochloride monohydrate</t>
+          <t>ropinirolhydroklorid</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2009-11-10</t>
+          <t>2010-02-26</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6655,27 +6626,27 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Glepark</t>
+          <t>Ropinirol EQL Pharma</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.7 mg</t>
+          <t>2 mg</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Pramipexole dihydrochloride monohydrate</t>
+          <t>ropinirolhydroklorid</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2009-11-10</t>
+          <t>2010-02-26</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6693,22 +6664,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Metformin EQL Pharma</t>
+          <t>Ropinirol EQL Pharma</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1000 mg</t>
+          <t>5 mg</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>metforminhydroklorid</t>
+          <t>ropinirolhydroklorid</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2009-09-11</t>
+          <t>2010-02-26</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6726,22 +6697,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Metformin EQL Pharma</t>
+          <t>Paroxetin EQL Pharma</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>20 mg</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>metforminhydroklorid</t>
+          <t>paroxetinhydrokloridhemihydrat</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2009-09-11</t>
+          <t>2010-01-22</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6759,22 +6730,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Metformin EQL Pharma</t>
+          <t>Paroxetin EQL Pharma</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>850 mg</t>
+          <t>30 mg</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>metforminhydroklorid</t>
+          <t>paroxetinhydrokloridhemihydrat</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2009-09-11</t>
+          <t>2010-01-22</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6792,22 +6763,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Glepark</t>
+          <t>Carvedilol EQL Pharma</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0,088mg</t>
+          <t>12,5 mg</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>pramipexoldihydrokloridmonohydrat</t>
+          <t>karvedilol</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2009-03-20</t>
+          <t>2009-12-04</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6825,22 +6796,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Glepark</t>
+          <t>Carvedilol EQL Pharma</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0,18 mg</t>
+          <t>25 mg</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>pramipexoldihydrokloridmonohydrat</t>
+          <t>karvedilol</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2009-03-20</t>
+          <t>2009-12-04</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6858,22 +6829,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Glepark</t>
+          <t>Carvedilol EQL Pharma</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0,35 mg</t>
+          <t>3,125 mg</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>pramipexoldihydrokloridmonohydrat</t>
+          <t>karvedilol</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2009-03-20</t>
+          <t>2009-12-04</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6891,22 +6862,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Glepark</t>
+          <t>Carvedilol EQL Pharma</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0,7 mg</t>
+          <t>6,25 mg</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>pramipexoldihydrokloridmonohydrat</t>
+          <t>karvedilol</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2009-03-20</t>
+          <t>2009-12-04</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6924,22 +6895,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Anastrozol Eql Pharma</t>
+          <t>Glepark</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>0.088 mg</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Anastrozole</t>
+          <t>Pramipexole dihydrochloride monohydrate</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2008-09-04</t>
+          <t>2009-11-10</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6952,27 +6923,27 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Anastrozol EQL Pharma</t>
+          <t>Glepark</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>0.18 mg</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>anastrozol</t>
+          <t>Pramipexole dihydrochloride monohydrate</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2008-07-03</t>
+          <t>2009-11-10</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6985,76 +6956,68 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Mirtazapin Aurobindo</t>
+          <t>Glepark</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>15 mg</t>
+          <t>0.35 mg</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>mirtazapin</t>
+          <t>Pramipexole dihydrochloride monohydrate</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2008-05-09</t>
+          <t>2009-11-10</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Mirtazapin Aurobindo</t>
+          <t>Glepark</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>30 mg</t>
+          <t>0.7 mg</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>mirtazapin</t>
+          <t>Pramipexole dihydrochloride monohydrate</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2008-05-09</t>
+          <t>2009-11-10</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7064,34 +7027,30 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Mirtazapin Aurobindo</t>
+          <t>Metformin EQL Pharma</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>45 mg</t>
+          <t>1000 mg</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>mirtazapin</t>
+          <t>metforminhydroklorid</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2008-05-09</t>
+          <t>2009-09-11</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7101,22 +7060,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Venlafaxin EQL Pharma</t>
+          <t>Metformin EQL Pharma</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>150 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>venlafaxinhydroklorid</t>
+          <t>metforminhydroklorid</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2008-03-28</t>
+          <t>2009-09-11</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7134,22 +7093,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Venlafaxin EQL Pharma</t>
+          <t>Metformin EQL Pharma</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>75 mg</t>
+          <t>850 mg</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>venlafaxinhydroklorid</t>
+          <t>metforminhydroklorid</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2008-03-28</t>
+          <t>2009-09-11</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7162,27 +7121,27 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Folimet</t>
+          <t>Glepark</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1 mg</t>
+          <t>0,088mg</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Folsyre</t>
+          <t>pramipexoldihydrokloridmonohydrat</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>2001-05-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7195,27 +7154,27 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Prednisolon "EQL Pharma"</t>
+          <t>Glepark</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2,5 mg</t>
+          <t>0,18 mg</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>PREDNISOLON</t>
+          <t>pramipexoldihydrokloridmonohydrat</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>1997-04-08</t>
+          <t>2009-03-20</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7228,27 +7187,27 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Prednisolon "EQL Pharma"</t>
+          <t>Glepark</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>0,35 mg</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>PREDNISOLON</t>
+          <t>pramipexoldihydrokloridmonohydrat</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>1997-04-08</t>
+          <t>2009-03-20</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7261,27 +7220,27 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Prednisolon "EQL Pharma"</t>
+          <t>Glepark</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>5 mg</t>
+          <t>0,7 mg</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>PREDNISOLON</t>
+          <t>pramipexoldihydrokloridmonohydrat</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>1997-04-08</t>
+          <t>2009-03-20</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7294,27 +7253,27 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Propranolol "EQL Pharma"</t>
+          <t>Anastrozol Eql Pharma</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>10 mg</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>PROPRANOLOLHYDROCHLORID</t>
+          <t>Anastrozole</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>1982-12-07</t>
+          <t>2008-09-04</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7327,27 +7286,27 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Propranolol "EQL Pharma"</t>
+          <t>Anastrozol EQL Pharma</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>40 mg</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>PROPRANOLOLHYDROCHLORID</t>
+          <t>anastrozol</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>1982-12-07</t>
+          <t>2008-07-03</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7360,126 +7319,138 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Allopurinol "EQL Pharma"</t>
+          <t>Mirtazapin Aurobindo</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>100 mg</t>
+          <t>15 mg</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>ALLOPURINOL</t>
+          <t>mirtazapin</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>1981-04-30</t>
+          <t>2008-05-09</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
+          <t>Aurobindo Pharma Limited</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Allopurinol "EQL Pharma"</t>
+          <t>Mirtazapin Aurobindo</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>300 mg</t>
+          <t>30 mg</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ALLOPURINOL</t>
+          <t>mirtazapin</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>1981-04-30</t>
+          <t>2008-05-09</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr"/>
+          <t>Aurobindo Pharma Limited</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Amitriptylin "EQL Pharma"</t>
+          <t>Mirtazapin Aurobindo</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>10 mg</t>
+          <t>45 mg</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Amitriptylinhydrochlorid</t>
+          <t>mirtazapin</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>1977-09-30</t>
+          <t>2008-05-09</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr"/>
+          <t>Aurobindo Pharma Limited</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Amitriptylin "EQL Pharma"</t>
+          <t>Venlafaxin EQL Pharma</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>25 mg</t>
+          <t>150 mg</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Amitriptylinhydrochlorid</t>
+          <t>venlafaxinhydroklorid</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>1977-09-30</t>
+          <t>2008-03-28</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7492,27 +7463,27 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Amitriptylin "EQL Pharma"</t>
+          <t>Venlafaxin EQL Pharma</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>75 mg</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Amitriptylinhydrochlorid</t>
+          <t>venlafaxinhydroklorid</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>1977-09-30</t>
+          <t>2008-03-28</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7530,22 +7501,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Nitrofurantoin "EQL Pharma"</t>
+          <t>Folimet</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>50 mg</t>
+          <t>1 mg</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>NITROFURANTOIN</t>
+          <t>Folsyre</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>1977-08-01</t>
+          <t>2001-05-09</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7563,22 +7534,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Folimet</t>
+          <t>Prednisolon "EQL Pharma"</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>5 mg</t>
+          <t>2,5 mg</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Folsyre</t>
+          <t>PREDNISOLON</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>1976-12-14</t>
+          <t>1997-04-08</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7596,30 +7567,393 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
+          <t>Prednisolon "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>25 mg</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>PREDNISOLON</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1997-04-08</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Prednisolon "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>5 mg</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>PREDNISOLON</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1997-04-08</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Propranolol "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>10 mg</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>PROPRANOLOLHYDROCHLORID</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1982-12-07</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Propranolol "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>40 mg</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>PROPRANOLOLHYDROCHLORID</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1982-12-07</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Allopurinol "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>100 mg</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>ALLOPURINOL</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1981-04-30</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Allopurinol "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>300 mg</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>ALLOPURINOL</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1981-04-30</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Amitriptylin "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>10 mg</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Amitriptylinhydrochlorid</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1977-09-30</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Amitriptylin "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>25 mg</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Amitriptylinhydrochlorid</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1977-09-30</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Amitriptylin "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>50 mg</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Amitriptylinhydrochlorid</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1977-09-30</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Nitrofurantoin "EQL Pharma"</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>50 mg</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>NITROFURANTOIN</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1977-08-01</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Folimet</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>5 mg</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Folsyre</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1976-12-14</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>Marplan</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>10 mg</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>ISOCARBOXAZID</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>1960-08-09</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>EQL Pharma AB</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>EQL Pharma AB</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7848,13 +8182,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B28EEE1-09F5-4733-926E-0F8621342005}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6DCC2E6-BCD3-477C-AC1B-033B8839749D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B0BB1F2-96E1-46E0-AF4B-0909569AAD74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8CAA4C-D87C-4403-AA7D-2787755AA423}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC10095D-D378-439A-B8BE-C7B8159D3637}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C961BB9-65C6-47FC-884E-B677C37F84E5}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,4 +7595,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C35333-8C41-46BA-AA9A-2078735BBAE5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83EFDD63-EDDD-4F91-8677-9CC1831B3D95}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3353902C-8022-4143-8565-F7B183BF1D72}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,4 +7595,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD61106-A77B-4F19-88F4-CC2C17F41AB7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF3F978-699B-49B7-8657-86C8C1D6D263}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{600B3C91-836F-4A61-A163-CA7EC5EDFBA4}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Preparat" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Preparat" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7819,13 +7819,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD61106-A77B-4F19-88F4-CC2C17F41AB7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E923CC-5C55-4853-AF90-9A1F10B9976B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF3F978-699B-49B7-8657-86C8C1D6D263}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63F9733A-A7E4-4182-9CC1-730BE7BAD49F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{600B3C91-836F-4A61-A163-CA7EC5EDFBA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4A52D6C-65A6-4A49-86F9-1033DA4F948C}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,4 +7595,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CF33B5E-2381-42F7-B2D6-B0EF75F86A3B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7BF4E96-CE0B-48AF-BDE5-D1E9AAD1911B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F1BCC6-63E6-4955-BEB7-A69373380D86}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,237 +7595,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CF33B5E-2381-42F7-B2D6-B0EF75F86A3B}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7BF4E96-CE0B-48AF-BDE5-D1E9AAD1911B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F1BCC6-63E6-4955-BEB7-A69373380D86}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,4 +7595,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58B33514-FA95-4396-A7EA-3F364E7C7774}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CF313A-1905-4866-A47E-A80E12DC69C5}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35389C58-5C9D-4554-B562-334E2735D6B8}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,237 +7595,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58B33514-FA95-4396-A7EA-3F364E7C7774}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CF313A-1905-4866-A47E-A80E12DC69C5}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35389C58-5C9D-4554-B562-334E2735D6B8}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,4 +7595,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535A1F4E-5ABA-47FA-9EF8-BEC6C9335D71}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8978666A-D4D0-4180-B146-115ECCC75BA2}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2516DBE0-B891-467C-AFB9-B31500F1CAE1}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,237 +7595,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535A1F4E-5ABA-47FA-9EF8-BEC6C9335D71}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8978666A-D4D0-4180-B146-115ECCC75BA2}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2516DBE0-B891-467C-AFB9-B31500F1CAE1}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,4 +7595,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A42161-D23E-4EF2-99F8-AE18E3F3BCF9}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66F1B4C-94D9-4860-80E7-82B404E00BCA}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E828B030-7045-4ABA-8EE8-BAA5940DBD78}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,237 +7595,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A42161-D23E-4EF2-99F8-AE18E3F3BCF9}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66F1B4C-94D9-4860-80E7-82B404E00BCA}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E828B030-7045-4ABA-8EE8-BAA5940DBD78}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,4 +7595,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F574D05-FBDF-44EC-BA8D-8DEB6EBA39E8}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C44FA36-8BCD-455B-A7C3-6316C170E469}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC9F71C-E25A-459B-A82C-D4FFD1870324}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,237 +7595,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F574D05-FBDF-44EC-BA8D-8DEB6EBA39E8}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C44FA36-8BCD-455B-A7C3-6316C170E469}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC9F71C-E25A-459B-A82C-D4FFD1870324}"/>
 </file>
--- a/data/eql_data.xlsx
+++ b/data/eql_data.xlsx
@@ -7595,4 +7595,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7F6578-FB36-4E4C-8D85-76C6747A0C0E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB77E79C-C786-4AF3-B1AD-9C2A21DC46D7}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06618C1C-7F0C-453A-9816-07FAC29994C2}"/>
 </file>